--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_18_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_18_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3300915.903026938</v>
+        <v>3302676.433329723</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C2" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="D2" t="n">
-        <v>263.7138800015061</v>
+        <v>212.568965117905</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>212.5689651179051</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -749,16 +749,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -797,13 +797,13 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>95.45905224591246</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>151.1247315130427</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>163.0304774313501</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>19.65229037928409</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>219.4450108596165</v>
       </c>
       <c r="C5" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="D5" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>219.4450108596165</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="G5" t="n">
         <v>12.83417464571001</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,19 +974,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>103.5525463090577</v>
+        <v>109.3170492634408</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,25 +1022,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1056,19 +1056,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>2.21468809059035</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>111.1763075921933</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>70.65511054726613</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.5491597882495</v>
+        <v>11.54915978824949</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>272.7688861650105</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.76608425465011</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348407</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896857</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614508</v>
+        <v>91.06264775162299</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115242</v>
+        <v>20.24979976115226</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>192.0697045406877</v>
       </c>
       <c r="U9" t="n">
-        <v>224.0328052099004</v>
+        <v>225.8092543744329</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1293,13 +1293,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>111.8888597431691</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>50.34571932180339</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1536,10 +1536,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>41.55695577161148</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>104.4262124629297</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1776,16 +1776,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>18.50276072357057</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>126.4418041083157</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1827,10 +1827,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>46.29306638367395</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2061,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>212.4287627768742</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="21">
@@ -2244,13 +2244,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,19 +2295,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>171.4915124652516</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>74.41917683133136</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2383,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2481,13 +2481,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.0479268348176</v>
+        <v>78.91051008678096</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2538,10 +2538,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634814</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>131.952790326202</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2797,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>161.0175085755505</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,13 +3006,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3189,22 +3189,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>102.711162814446</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3246,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3325,7 +3325,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>185.6271053876774</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3514,10 +3514,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,22 +3663,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>123.9815576456779</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>127.6210071331219</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4027,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881295</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>34.69211367164815</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>573.7617370571243</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="C2" t="n">
-        <v>307.3840804899464</v>
+        <v>255.7225503044907</v>
       </c>
       <c r="D2" t="n">
         <v>41.00642392276842</v>
@@ -4321,31 +4321,31 @@
         <v>34.06092317356495</v>
       </c>
       <c r="G2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917573</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515904</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030602</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991317</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358414</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4366,16 +4366,16 @@
         <v>1054.855520006025</v>
       </c>
       <c r="V2" t="n">
-        <v>840.1393936243022</v>
+        <v>788.4778634388467</v>
       </c>
       <c r="W2" t="n">
-        <v>840.1393936243022</v>
+        <v>788.4778634388467</v>
       </c>
       <c r="X2" t="n">
-        <v>840.1393936243022</v>
+        <v>788.4778634388467</v>
       </c>
       <c r="Y2" t="n">
-        <v>840.1393936243022</v>
+        <v>788.4778634388467</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>582.3653976835424</v>
+        <v>461.415698511977</v>
       </c>
       <c r="C3" t="n">
-        <v>407.9123684024154</v>
+        <v>461.415698511977</v>
       </c>
       <c r="D3" t="n">
-        <v>258.9779587411641</v>
+        <v>312.4812888507257</v>
       </c>
       <c r="E3" t="n">
-        <v>258.9779587411641</v>
+        <v>312.4812888507257</v>
       </c>
       <c r="F3" t="n">
-        <v>258.9779587411641</v>
+        <v>165.9467308776107</v>
       </c>
       <c r="G3" t="n">
-        <v>121.5812722902314</v>
+        <v>165.9467308776107</v>
       </c>
       <c r="H3" t="n">
-        <v>21.09711040012049</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957465</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298713</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263951</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290001</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557299</v>
+        <v>813.1187583557301</v>
       </c>
       <c r="P3" t="n">
-        <v>930.1763583891335</v>
+        <v>930.1763583891336</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V3" t="n">
-        <v>958.4322349091433</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="W3" t="n">
-        <v>958.4322349091433</v>
+        <v>782.2822794846134</v>
       </c>
       <c r="X3" t="n">
-        <v>750.5807347036105</v>
+        <v>629.631035532045</v>
       </c>
       <c r="Y3" t="n">
-        <v>750.5807347036105</v>
+        <v>629.631035532045</v>
       </c>
     </row>
     <row r="4">
@@ -4464,46 +4464,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>175.0184834666425</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C4" t="n">
-        <v>175.0184834666425</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D4" t="n">
-        <v>175.0184834666425</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E4" t="n">
-        <v>175.0184834666425</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F4" t="n">
-        <v>175.0184834666425</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G4" t="n">
-        <v>175.0184834666425</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
         <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551008</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4512,28 +4512,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>906.2121934777945</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.855520006025</v>
+        <v>906.2121934777945</v>
       </c>
       <c r="U4" t="n">
-        <v>1054.855520006025</v>
+        <v>906.2121934777945</v>
       </c>
       <c r="V4" t="n">
-        <v>1054.855520006025</v>
+        <v>651.5277052719076</v>
       </c>
       <c r="W4" t="n">
-        <v>788.4778634388466</v>
+        <v>651.5277052719076</v>
       </c>
       <c r="X4" t="n">
-        <v>560.4883125408293</v>
+        <v>423.5381543738903</v>
       </c>
       <c r="Y4" t="n">
-        <v>339.6957333972991</v>
+        <v>202.7455752303602</v>
       </c>
     </row>
     <row r="5">
@@ -4543,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>788.4778634388466</v>
+        <v>833.193892875099</v>
       </c>
       <c r="C5" t="n">
-        <v>522.1002068716687</v>
+        <v>566.8162363079209</v>
       </c>
       <c r="D5" t="n">
-        <v>255.7225503044907</v>
+        <v>300.438579740743</v>
       </c>
       <c r="E5" t="n">
-        <v>255.7225503044907</v>
+        <v>300.438579740743</v>
       </c>
       <c r="F5" t="n">
         <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917556</v>
       </c>
       <c r="K5" t="n">
         <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515905</v>
+        <v>294.5174947515906</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4612,7 +4612,7 @@
         <v>1054.855520006025</v>
       </c>
       <c r="Y5" t="n">
-        <v>788.4778634388466</v>
+        <v>1054.855520006025</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>545.6876112471974</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C6" t="n">
-        <v>371.2345819660704</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D6" t="n">
-        <v>371.2345819660704</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E6" t="n">
-        <v>211.9971269606149</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F6" t="n">
-        <v>65.46256898749988</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G6" t="n">
-        <v>65.46256898749988</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H6" t="n">
-        <v>65.46256898749988</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J6" t="n">
-        <v>117.4455628004801</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699343</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L6" t="n">
-        <v>338.874007230231</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4746963267547</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N6" t="n">
-        <v>739.5286634293598</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560896</v>
+        <v>813.1187583557301</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
@@ -4670,28 +4670,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T6" t="n">
-        <v>858.0464416374622</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U6" t="n">
-        <v>858.0464416374622</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V6" t="n">
-        <v>858.0464416374622</v>
+        <v>801.3675279810723</v>
       </c>
       <c r="W6" t="n">
-        <v>858.0464416374622</v>
+        <v>547.1301712528707</v>
       </c>
       <c r="X6" t="n">
-        <v>858.0464416374622</v>
+        <v>339.2786710473379</v>
       </c>
       <c r="Y6" t="n">
-        <v>650.2861428725082</v>
+        <v>131.518372282384</v>
       </c>
     </row>
     <row r="7">
@@ -4701,46 +4701,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>333.328140844591</v>
+        <v>652.4144760322549</v>
       </c>
       <c r="C7" t="n">
-        <v>333.328140844591</v>
+        <v>483.478293104348</v>
       </c>
       <c r="D7" t="n">
-        <v>183.2115014322552</v>
+        <v>333.3616536920123</v>
       </c>
       <c r="E7" t="n">
-        <v>183.2115014322552</v>
+        <v>185.4485601096192</v>
       </c>
       <c r="F7" t="n">
-        <v>36.32155393434483</v>
+        <v>38.55861261170881</v>
       </c>
       <c r="G7" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="J7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551008</v>
+        <v>316.7083726551011</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375338</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4752,25 +4752,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>848.0684854165359</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T7" t="n">
-        <v>848.0684854165359</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>848.0684854165359</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>735.7691848183608</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W7" t="n">
-        <v>735.7691848183608</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X7" t="n">
-        <v>735.7691848183608</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y7" t="n">
-        <v>514.9766056748307</v>
+        <v>834.0629408624947</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1247.262339852783</v>
+        <v>1201.605746138051</v>
       </c>
       <c r="C8" t="n">
-        <v>878.2998229123712</v>
+        <v>1201.605746138051</v>
       </c>
       <c r="D8" t="n">
-        <v>520.0341243056207</v>
+        <v>1201.605746138051</v>
       </c>
       <c r="E8" t="n">
-        <v>134.2458717073765</v>
+        <v>815.8174935398069</v>
       </c>
       <c r="F8" t="n">
-        <v>62.87707317478441</v>
+        <v>404.8315887501994</v>
       </c>
       <c r="G8" t="n">
-        <v>51.21125520685563</v>
+        <v>393.1657707822706</v>
       </c>
       <c r="H8" t="n">
-        <v>51.21125520685563</v>
+        <v>117.641643342866</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685563</v>
+        <v>51.21125520685583</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467168</v>
+        <v>187.3702251467175</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607417</v>
+        <v>442.1757437607432</v>
       </c>
       <c r="L8" t="n">
-        <v>795.186282904592</v>
+        <v>795.1862829045947</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995225</v>
+        <v>1219.64796299523</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209583</v>
+        <v>1655.591685209588</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940594</v>
+        <v>2053.905718940601</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550196</v>
+        <v>2359.356530550204</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661162</v>
+        <v>2540.564622661172</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342781</v>
+        <v>2560.562760342792</v>
       </c>
       <c r="S8" t="n">
-        <v>2435.830015762134</v>
+        <v>2560.562760342792</v>
       </c>
       <c r="T8" t="n">
-        <v>2227.077931858407</v>
+        <v>2351.810676439065</v>
       </c>
       <c r="U8" t="n">
-        <v>1973.496753383977</v>
+        <v>2351.810676439065</v>
       </c>
       <c r="V8" t="n">
-        <v>1973.496753383977</v>
+        <v>2351.810676439065</v>
       </c>
       <c r="W8" t="n">
-        <v>1620.728098113863</v>
+        <v>2351.810676439065</v>
       </c>
       <c r="X8" t="n">
-        <v>1247.262339852783</v>
+        <v>1978.344918177985</v>
       </c>
       <c r="Y8" t="n">
-        <v>1247.262339852783</v>
+        <v>1588.205586202173</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041138965633</v>
+        <v>929.5097208010864</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8510846154363</v>
+        <v>755.0566915199594</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9166749541851</v>
+        <v>606.1222818587081</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792199487295</v>
+        <v>446.8848268532526</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446619756144</v>
+        <v>300.3502688801376</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4424639718026</v>
+        <v>163.6480708763258</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993887</v>
+        <v>71.66559839993893</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685563</v>
+        <v>51.21125520685583</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637186</v>
+        <v>167.3422431396336</v>
       </c>
       <c r="K9" t="n">
-        <v>298.0857543148177</v>
+        <v>613.7598241331862</v>
       </c>
       <c r="L9" t="n">
-        <v>592.6217377482988</v>
+        <v>908.2958075666681</v>
       </c>
       <c r="M9" t="n">
-        <v>955.6882062225998</v>
+        <v>1271.36227604097</v>
       </c>
       <c r="N9" t="n">
-        <v>1342.772608695169</v>
+        <v>1658.44667851354</v>
       </c>
       <c r="O9" t="n">
-        <v>1674.659418682558</v>
+        <v>1990.33348850093</v>
       </c>
       <c r="P9" t="n">
-        <v>2213.078715030389</v>
+        <v>2237.368846930555</v>
       </c>
       <c r="Q9" t="n">
-        <v>2536.272628442624</v>
+        <v>2560.562760342792</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342781</v>
+        <v>2560.562760342792</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251697</v>
+        <v>2424.826280251707</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685345</v>
+        <v>2230.816477685356</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520714847062</v>
+        <v>2002.726321751585</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.36860661532</v>
+        <v>1767.574213519843</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131249887118</v>
+        <v>1513.336856791641</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279749681585</v>
+        <v>1305.485356586108</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519450916631</v>
+        <v>1097.725057821154</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>461.2368923627271</v>
+        <v>665.0671186274019</v>
       </c>
       <c r="C10" t="n">
-        <v>461.2368923627271</v>
+        <v>496.130935699495</v>
       </c>
       <c r="D10" t="n">
-        <v>311.1202529503913</v>
+        <v>346.0142962871593</v>
       </c>
       <c r="E10" t="n">
-        <v>198.101202704766</v>
+        <v>198.1012027047662</v>
       </c>
       <c r="F10" t="n">
-        <v>51.21125520685563</v>
+        <v>51.21125520685583</v>
       </c>
       <c r="G10" t="n">
-        <v>51.21125520685563</v>
+        <v>51.21125520685583</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685563</v>
+        <v>51.21125520685583</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685563</v>
+        <v>51.21125520685583</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380138</v>
+        <v>76.63468308380183</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676565</v>
+        <v>248.2500215676574</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368916</v>
+        <v>523.385004336893</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904029</v>
+        <v>823.8653899904049</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101612</v>
+        <v>1122.635640101614</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.58202793109</v>
+        <v>1382.582027931093</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616499</v>
+        <v>1581.490387616502</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477362</v>
+        <v>1635.769145477365</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477362</v>
+        <v>1635.769145477365</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.769145477362</v>
+        <v>1635.769145477365</v>
       </c>
       <c r="T10" t="n">
-        <v>1635.769145477362</v>
+        <v>1635.769145477365</v>
       </c>
       <c r="U10" t="n">
-        <v>1635.769145477362</v>
+        <v>1635.769145477365</v>
       </c>
       <c r="V10" t="n">
-        <v>1381.084657271475</v>
+        <v>1584.91488353615</v>
       </c>
       <c r="W10" t="n">
-        <v>1091.667487234514</v>
+        <v>1295.497713499189</v>
       </c>
       <c r="X10" t="n">
-        <v>863.6779363364969</v>
+        <v>1067.508162601172</v>
       </c>
       <c r="Y10" t="n">
-        <v>642.8853571929668</v>
+        <v>846.7155834576416</v>
       </c>
     </row>
     <row r="11">
@@ -5026,55 +5026,55 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5129,13 +5129,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190824</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.963083580261</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>2157.887856924459</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1903.203368718572</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1613.786198681611</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>1385.796647783594</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="14">
@@ -5257,70 +5257,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C16" t="n">
-        <v>847.644273983533</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711973</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>336.3048548543961</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>336.3048548543961</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2252.19838578386</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1963.123159128057</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1708.43867092217</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1419.02150088521</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X16" t="n">
-        <v>1419.02150088521</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y16" t="n">
-        <v>1198.22892174168</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,61 +5503,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>768.5380889459586</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C19" t="n">
-        <v>599.6019060180517</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D19" t="n">
-        <v>449.485266605716</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>449.485266605716</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V19" t="n">
-        <v>1688.385853854707</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W19" t="n">
-        <v>1398.968683817746</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X19" t="n">
-        <v>1170.979132919728</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y19" t="n">
-        <v>950.1865537761984</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="20">
@@ -5734,7 +5734,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5749,25 +5749,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>948.5505208511905</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C22" t="n">
-        <v>779.6143379232836</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510509</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1722.776592304622</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.359422267661</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X22" t="n">
-        <v>1205.369871369644</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y22" t="n">
-        <v>1130.19898568143</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5977,58 +5977,58 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
         <v>3094.515198591809</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.867919098985</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.792692443183</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V25" t="n">
-        <v>1501.108204237296</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1501.108204237296</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6220,55 +6220,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>915.1035305473698</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>781.8178837532264</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487567</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1907.987318831765</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1653.302830625878</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1363.885660588917</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1135.8961096909</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>915.1035305473698</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6463,10 +6463,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>579.1554649516142</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>870.3164745246296</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>701.3802915967227</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>551.263652184387</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>403.3505586019938</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>256.4606111040835</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1500.747069396417</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1272.757518498399</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>1051.964939354869</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,61 +6688,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>847.6442739835331</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2276.168730525142</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2056.567265548083</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1767.492038892281</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1767.492038892281</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1478.07486885532</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1250.085317957303</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>1029.292738813773</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6916,61 +6916,61 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>800.6374272687975</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D37" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1720.485192177545</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1431.068022140585</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1203.078471242567</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>982.2858920990373</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
@@ -7162,64 +7162,64 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7450,10 +7450,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1198.22892174168</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7663,37 +7663,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,25 +7721,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>2009.464245195835</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1754.779756989948</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1465.362586952987</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1237.37303605497</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>1016.58045691144</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418266</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.32166909127237</v>
+        <v>97.32166909127245</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8142,7 +8142,7 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>162.4747015415543</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
         <v>178.5096609094456</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>99.37288961069065</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>97.32166909127244</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>54.39745977365091</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>294.3272100183908</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.98618304348489</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23424,10 +23424,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>104.8770068749577</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>114.158440889165</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>147.0213775686983</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,10 +23703,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>90.96364621897253</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23901,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>99.1279816392573</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>39.70888054695382</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,19 +24183,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>115.0314858713394</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>144.1654765207634</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0.3575234924706763</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>35.29403077242586</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>4.506629716718379</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,13 +24894,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>78.31512318719862</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25365,13 +25365,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>66.51053793615057</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>24.63391537253442</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>98.0886482559152</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>251.492360717596</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>697053.601106727</v>
+        <v>697053.6011067269</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>697053.6011067269</v>
+        <v>697053.601106727</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>697053.6011067269</v>
+        <v>697053.601106727</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>697053.601106727</v>
+        <v>697053.6011067269</v>
       </c>
     </row>
     <row r="11">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778554</v>
+        <v>738937.5928778549</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778549</v>
+        <v>738937.5928778551</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778551</v>
+        <v>738937.5928778545</v>
       </c>
       <c r="E2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="F2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="G2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="H2" t="n">
         <v>726431.9397210054</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>726431.9397210054</v>
       </c>
-      <c r="H2" t="n">
-        <v>726431.9397210055</v>
-      </c>
-      <c r="I2" t="n">
-        <v>726431.9397210052</v>
-      </c>
       <c r="J2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.939721005</v>
       </c>
       <c r="K2" t="n">
         <v>726431.9397210052</v>
       </c>
       <c r="L2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.939721005</v>
       </c>
       <c r="M2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="N2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.939721005</v>
       </c>
       <c r="O2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.939721005</v>
       </c>
       <c r="P2" t="n">
         <v>726431.9397210053</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580785</v>
+        <v>390680.0076580808</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.232060694</v>
+        <v>507909.2320606913</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911407</v>
+        <v>68999.15441911406</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.413517661587885e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101751</v>
+        <v>95270.23779101823</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954692</v>
+        <v>132717.9756954685</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>252122.0652631775</v>
       </c>
       <c r="D4" t="n">
-        <v>141668.8507447212</v>
+        <v>141668.8507447205</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
@@ -26441,7 +26441,7 @@
         <v>11776.97621680582</v>
       </c>
       <c r="J4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680578</v>
       </c>
       <c r="K4" t="n">
         <v>11776.97621680582</v>
@@ -26450,7 +26450,7 @@
         <v>11776.97621680582</v>
       </c>
       <c r="M4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680576</v>
       </c>
       <c r="N4" t="n">
         <v>11776.97621680582</v>
@@ -26459,7 +26459,7 @@
         <v>11776.97621680582</v>
       </c>
       <c r="P4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680578</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567893</v>
+        <v>92902.86757567913</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-256320.2561807813</v>
+        <v>-256320.2561807819</v>
       </c>
       <c r="C6" t="n">
-        <v>423767.7244104113</v>
+        <v>423767.7244104114</v>
       </c>
       <c r="D6" t="n">
-        <v>113685.8668993765</v>
+        <v>113685.866899374</v>
       </c>
       <c r="E6" t="n">
-        <v>105275.8223652413</v>
+        <v>105588.4636941653</v>
       </c>
       <c r="F6" t="n">
-        <v>613185.0544259355</v>
+        <v>613497.6957548569</v>
       </c>
       <c r="G6" t="n">
-        <v>613185.0544259355</v>
+        <v>613497.6957548567</v>
       </c>
       <c r="H6" t="n">
-        <v>613185.0544259356</v>
+        <v>613497.6957548568</v>
       </c>
       <c r="I6" t="n">
-        <v>613185.0544259354</v>
+        <v>613497.6957548566</v>
       </c>
       <c r="J6" t="n">
-        <v>544185.9000068214</v>
+        <v>544498.5413357425</v>
       </c>
       <c r="K6" t="n">
-        <v>613185.0544259353</v>
+        <v>613497.6957548566</v>
       </c>
       <c r="L6" t="n">
-        <v>517914.8166349179</v>
+        <v>518227.4579638381</v>
       </c>
       <c r="M6" t="n">
-        <v>480467.0787304664</v>
+        <v>480779.7200593881</v>
       </c>
       <c r="N6" t="n">
-        <v>613185.0544259355</v>
+        <v>613497.6957548565</v>
       </c>
       <c r="O6" t="n">
-        <v>613185.0544259355</v>
+        <v>613497.6957548565</v>
       </c>
       <c r="P6" t="n">
-        <v>613185.0544259354</v>
+        <v>613497.6957548568</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627823</v>
+        <v>933.7024595627844</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,40 +26789,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856953</v>
+        <v>640.1406900856979</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26831,7 +26831,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.016897076984856e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933041</v>
+        <v>319.647445793306</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788916</v>
+        <v>434.2730407788894</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841892</v>
+        <v>376.4268100841917</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139533</v>
+        <v>532.5675980139505</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841891</v>
+        <v>376.4268100841919</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139533</v>
+        <v>532.5675980139505</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.016897076984856e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841892</v>
+        <v>376.4268100841917</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139533</v>
+        <v>532.5675980139505</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>101.5590117695014</v>
       </c>
       <c r="D2" t="n">
-        <v>90.96916161917682</v>
+        <v>142.1140765027779</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27438,7 +27438,7 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>115.1832933522298</v>
+        <v>64.03837846862871</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27460,7 +27460,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27469,16 +27469,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
@@ -27517,13 +27517,13 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>137.3415349035128</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>54.64825369043479</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.80150275058725</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27554,13 +27554,13 @@
         <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>185.0668738643097</v>
       </c>
       <c r="T4" t="n">
         <v>223.2143458795659</v>
@@ -27596,10 +27596,10 @@
         <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>22.80911833508486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>163.288830803864</v>
       </c>
       <c r="C5" t="n">
         <v>101.5590117695014</v>
       </c>
       <c r="D5" t="n">
-        <v>90.96916161917682</v>
+        <v>90.96916161917676</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>187.431034882095</v>
+        <v>143.1621657402052</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>122.5240586545474</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27694,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>62.98063734080966</v>
+        <v>57.21613438642653</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,25 +27742,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27776,19 +27776,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8836670385466</v>
+        <v>164.6689789479562</v>
       </c>
       <c r="H7" t="n">
         <v>152.3821593358568</v>
@@ -27824,7 +27824,7 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
         <v>223.2143458795659</v>
@@ -27833,7 +27833,7 @@
         <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>140.9613357316347</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>336.2209351944453</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203004</v>
+        <v>28.26458805528989</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465045</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4854171348405</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0453666896856</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27949,7 +27949,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1.776449164522035</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27988,7 +27988,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>1.776449164532494</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28013,13 +28013,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>34.54510290340008</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430995</v>
+        <v>104.8162497430994</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640954</v>
+        <v>101.5869591640952</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503845</v>
+        <v>194.6738502503844</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103388</v>
+        <v>220.7514885103387</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>201.7919240020246</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -29274,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>-8.44124770082999e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -30000,7 +30000,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-1.307398633798584e-12</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -31041,31 +31041,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31077,7 +31077,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31126,16 +31126,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31144,25 +31144,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31202,16 +31202,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31223,25 +31223,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,31 +31278,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31314,7 +31314,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31363,16 +31363,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31381,25 +31381,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31439,16 +31439,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31460,25 +31460,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885554</v>
+        <v>3.753577726885562</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546669</v>
+        <v>38.44132789546678</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157555</v>
+        <v>144.7098053157558</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972531</v>
+        <v>318.5802175972538</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763187</v>
+        <v>477.4691627763198</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354926</v>
+        <v>592.3427171354939</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359935</v>
+        <v>659.095405035995</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525072</v>
+        <v>669.7602577525087</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307889</v>
+        <v>632.4356192307903</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983017</v>
+        <v>539.7691690983029</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542127</v>
+        <v>405.3441667542136</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864749</v>
+        <v>235.7856768864754</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140465</v>
+        <v>85.53465245140484</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944152</v>
+        <v>16.43128649944156</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508443</v>
+        <v>0.3002862181508449</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436928</v>
+        <v>2.008341139436932</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035139</v>
+        <v>19.39634732035143</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026266</v>
+        <v>69.14683309026282</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079424</v>
+        <v>189.7441951079429</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502166</v>
+        <v>324.3030514502173</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571278</v>
+        <v>436.0654741571287</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617163</v>
+        <v>508.8678404617174</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152211</v>
+        <v>522.3360580152222</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519081</v>
+        <v>477.8354464519091</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947587</v>
+        <v>383.5050724947595</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.36298474637</v>
+        <v>256.3629847463706</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204788</v>
+        <v>124.6933209204791</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366397</v>
+        <v>37.30405581366405</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133931</v>
+        <v>8.095024154133949</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419032</v>
+        <v>0.1321277065419035</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752558</v>
+        <v>1.683725746752562</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840003</v>
+        <v>14.96985254840006</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415877</v>
+        <v>50.63422518415887</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954059</v>
+        <v>119.0394102954061</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772517</v>
+        <v>195.6183185772522</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490122</v>
+        <v>250.3240987490127</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023123</v>
+        <v>263.9316641023129</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462348</v>
+        <v>257.6559590462354</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046253</v>
+        <v>237.9869810046258</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708729</v>
+        <v>203.6389757708734</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939801</v>
+        <v>140.9890713939804</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307409</v>
+        <v>75.70643221307427</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658775</v>
+        <v>29.34274778658782</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942746</v>
+        <v>7.194100917942762</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650327</v>
+        <v>0.09183958618650348</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>359.7096985496632</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>400.5469039565762</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>277.4567226539307</v>
       </c>
       <c r="M30" t="n">
-        <v>244.0266243181833</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162539</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,10 +34780,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763047</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34798,7 +34798,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.9385470877688</v>
+        <v>125.9385470877689</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,10 +34862,10 @@
         <v>106.3800667966406</v>
       </c>
       <c r="L4" t="n">
-        <v>192.2171678043496</v>
+        <v>192.2171678043497</v>
       </c>
       <c r="M4" t="n">
-        <v>213.1601163458916</v>
+        <v>213.1601163458915</v>
       </c>
       <c r="N4" t="n">
         <v>213.581156752698</v>
@@ -34877,7 +34877,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763047</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35032,10 +35032,10 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>118.240000033741</v>
+        <v>215.5616691250135</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649638</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35114,7 +35114,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705668</v>
+        <v>137.5343130705675</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313381</v>
+        <v>257.3793117313392</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655054</v>
+        <v>356.5763021655067</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087208</v>
+        <v>428.7491718087223</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559163</v>
+        <v>440.3471941559177</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091022</v>
+        <v>402.3374078091035</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430322</v>
+        <v>308.5361733430333</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797632</v>
+        <v>183.0384768797641</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234278</v>
+        <v>20.20013907234329</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127574</v>
+        <v>117.3040282149271</v>
       </c>
       <c r="K9" t="n">
-        <v>186.4616124758576</v>
+        <v>450.9268494884369</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772536</v>
+        <v>297.5110943772546</v>
       </c>
       <c r="M9" t="n">
-        <v>366.733806539698</v>
+        <v>366.7338065396991</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318878</v>
+        <v>390.9943459318889</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074636</v>
+        <v>335.2392020074647</v>
       </c>
       <c r="P9" t="n">
-        <v>543.8578750988192</v>
+        <v>249.5306650804293</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.4584983961976</v>
+        <v>326.4584983961981</v>
       </c>
       <c r="R9" t="n">
-        <v>24.53548676783566</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873308</v>
+        <v>25.68023017873334</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513688</v>
+        <v>173.3488267513693</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093284</v>
+        <v>277.9141240093289</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641529</v>
+        <v>303.5155410641535</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254635</v>
+        <v>301.788131425464</v>
       </c>
       <c r="O10" t="n">
-        <v>262.572108918665</v>
+        <v>262.5721089186655</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357664</v>
+        <v>200.9175350357669</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228576</v>
+        <v>54.82702814228604</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,22 +35494,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>228.3679864663299</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,16 +35731,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>257.9506595121318</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,25 +36916,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>138.9023428740565</v>
       </c>
       <c r="M30" t="n">
-        <v>101.892590396165</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462666</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,16 +37864,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,16 +38101,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
